--- a/이벤트DATA_KR R2M.xlsx
+++ b/이벤트DATA_KR R2M.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27021"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27025"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10375,7 +10375,7 @@
       <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="H1:Y46" xr:uid="{0168CA1E-1939-491A-80FA-482D62F2153C}"/>
+      <autoFilter ref="H1:Y46" xr:uid="{9330EF4D-B7FE-42E1-8663-D60BF0793C98}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -32504,7 +32504,7 @@
       <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-      <autoFilter ref="B1:T58" xr:uid="{A0811E99-8951-4DD2-B54E-0CA9A27EF6C1}"/>
+      <autoFilter ref="B1:T58" xr:uid="{24EB2FAC-AE58-425F-8A1E-1988098FF42F}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -34062,7 +34062,7 @@
       <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="B1:S56" xr:uid="{2ACBC1A9-709C-4C7C-8620-32BB0F537E57}"/>
+      <autoFilter ref="B1:S56" xr:uid="{54F92C42-6D84-4242-946A-663CD23FC47B}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -37050,7 +37050,7 @@
       <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="B1:Q116" xr:uid="{8DFC7784-AF61-46C0-95AD-60D10E133557}"/>
+      <autoFilter ref="B1:Q116" xr:uid="{2588EC26-3D86-4F88-8D94-4BC8DFE41A50}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -37060,6 +37060,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100035D89899FF2E144AC5CDF3E0C05E410" ma:contentTypeVersion="14" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="c73faac0d5522cd1062ab959a8e66599">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b850dbe-2bbc-4312-b635-0ac631df3b32" xmlns:ns3="1e91ce72-769a-45b6-b2e9-1e3503954573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87c65ceb92f45bbb5f0f16055108a0db" ns2:_="" ns3:_="">
     <xsd:import namespace="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
@@ -37288,15 +37297,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -37309,11 +37309,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25DA6E6A-CC9C-469E-B61D-630EB79AA076}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25DA6E6A-CC9C-469E-B61D-630EB79AA076}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/이벤트DATA_KR R2M.xlsx
+++ b/이벤트DATA_KR R2M.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27109"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10375,7 +10375,7 @@
       <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="H1:Y46" xr:uid="{9330EF4D-B7FE-42E1-8663-D60BF0793C98}"/>
+      <autoFilter ref="H1:Y46" xr:uid="{EE92B4A0-E67E-40F3-A560-8F39E5AB3A2A}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -32504,7 +32504,7 @@
       <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-      <autoFilter ref="B1:T58" xr:uid="{24EB2FAC-AE58-425F-8A1E-1988098FF42F}"/>
+      <autoFilter ref="B1:T58" xr:uid="{05DC426C-D513-467C-9E84-0451F491989D}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -34062,7 +34062,7 @@
       <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="B1:S56" xr:uid="{54F92C42-6D84-4242-946A-663CD23FC47B}"/>
+      <autoFilter ref="B1:S56" xr:uid="{AE944902-F42C-4E37-8A28-71087802132A}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -37050,7 +37050,7 @@
       <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="B1:Q116" xr:uid="{2588EC26-3D86-4F88-8D94-4BC8DFE41A50}"/>
+      <autoFilter ref="B1:Q116" xr:uid="{B8F30CEA-3C2B-4812-95EF-A56B425A8106}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -37060,15 +37060,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100035D89899FF2E144AC5CDF3E0C05E410" ma:contentTypeVersion="14" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="c73faac0d5522cd1062ab959a8e66599">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b850dbe-2bbc-4312-b635-0ac631df3b32" xmlns:ns3="1e91ce72-769a-45b6-b2e9-1e3503954573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87c65ceb92f45bbb5f0f16055108a0db" ns2:_="" ns3:_="">
     <xsd:import namespace="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
@@ -37297,7 +37288,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7b850dbe-2bbc-4312-b635-0ac631df3b32">
@@ -37308,14 +37299,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25DA6E6A-CC9C-469E-B61D-630EB79AA076}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25DA6E6A-CC9C-469E-B61D-630EB79AA076}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F54D97-86D7-414F-A2CA-4440D6773C86}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F54D97-86D7-414F-A2CA-4440D6773C86}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}"/>
 </file>